--- a/data-raw/NutrientData/nutrientDetails/comp_fct_mutton and goat_clamb.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_fct_mutton and goat_clamb.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29980" yWindow="440" windowWidth="23420" windowHeight="10500"/>
+    <workbookView xWindow="-33600" yWindow="-7780" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -754,6 +754,9 @@
       <c r="AD2" s="4">
         <v>57</v>
       </c>
+      <c r="AJ2" s="4">
+        <v>0</v>
+      </c>
       <c r="AM2" s="4">
         <v>1004</v>
       </c>
@@ -857,6 +860,9 @@
       </c>
       <c r="AI3" s="4">
         <v>3.6</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>0</v>
       </c>
       <c r="AL3" s="4">
         <v>0</v>
@@ -931,7 +937,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
       <c r="T4" s="3">
         <f t="shared" si="0"/>
         <v>0.35</v>
@@ -960,12 +969,18 @@
         <f t="shared" si="0"/>
         <v>5.4499999999999993</v>
       </c>
-      <c r="AA4" s="3"/>
+      <c r="AA4" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3149999999999995</v>
+      </c>
       <c r="AB4" s="3">
         <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
-      <c r="AC4" s="3"/>
+      <c r="AC4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AD4" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -990,7 +1005,10 @@
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="AJ4" s="3"/>
+      <c r="AJ4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3">
         <f t="shared" si="0"/>

--- a/data-raw/NutrientData/nutrientDetails/comp_fct_mutton and goat_clamb.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/comp_fct_mutton and goat_clamb.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>usda_code</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>sodium_g</t>
-  </si>
-  <si>
-    <t>vit_d_μg</t>
   </si>
 </sst>
 </file>
@@ -544,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -620,7 +617,7 @@
       <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="4" t="s">
@@ -653,11 +650,11 @@
       <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>33</v>
